--- a/StructureDefinition-profile-VisionPrescription.xlsx
+++ b/StructureDefinition-profile-VisionPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.8248056-06:00</t>
+    <t>2026-02-09T22:05:43.4042019-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-VisionPrescription.xlsx
+++ b/StructureDefinition-profile-VisionPrescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="305">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.4042019-06:00</t>
+    <t>2026-02-17T14:42:26.944225-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -685,10 +685,40 @@
     <t>VisionPrescription.lensSpecification.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>VisionPrescription.lensSpecification.extension:lensSpecification</t>
+  </si>
+  <si>
+    <t>lensSpecification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VisionPrescription.lensSpecification|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for VisionPrescription.lensSpecification from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `VisionPrescription.lensSpecification` has is mapped to FHIR R4 element `VisionPrescription.lensSpecification`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>VisionPrescription.lensSpecification.modifierExtension</t>
@@ -818,6 +848,9 @@
   </si>
   <si>
     <t>VisionPrescription.lensSpecification.prism.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>VisionPrescription.lensSpecification.prism.modifierExtension</t>
@@ -1234,7 +1267,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1243,9 +1276,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.59375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.59375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.41015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1253,7 +1286,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="43.47265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.60546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3465,11 +3498,11 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -3487,14 +3520,12 @@
         <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3531,19 +3562,17 @@
         <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3561,7 +3590,7 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3572,18 +3601,20 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -3592,26 +3623,24 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3659,7 +3688,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3668,7 +3697,7 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>138</v>
@@ -3677,7 +3706,7 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3688,43 +3717,45 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3749,13 +3780,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3773,39 +3804,39 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3828,7 +3859,7 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>234</v>
@@ -3836,11 +3867,9 @@
       <c r="M23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3865,7 +3894,7 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="Y23" t="s" s="2">
         <v>238</v>
@@ -3889,7 +3918,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
@@ -3907,21 +3936,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3929,7 +3958,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>87</v>
@@ -3941,22 +3970,22 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -3981,13 +4010,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4005,10 +4034,10 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>87</v>
@@ -4034,10 +4063,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4060,17 +4089,19 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4119,7 +4150,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4148,10 +4179,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4177,16 +4208,14 @@
         <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4235,7 +4264,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4264,10 +4293,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4278,7 +4307,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4290,17 +4319,19 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4349,13 +4380,13 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
@@ -4367,7 +4398,7 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4378,10 +4409,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4392,7 +4423,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4404,16 +4435,18 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4461,25 +4494,25 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4490,21 +4523,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4516,17 +4549,15 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4575,19 +4606,19 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -4604,14 +4635,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4624,26 +4655,24 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O30" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4691,7 +4720,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4709,7 +4738,7 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4720,43 +4749,45 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4805,25 +4836,25 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4834,10 +4865,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4860,17 +4891,17 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4895,13 +4926,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4919,7 +4950,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
@@ -4948,10 +4979,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4959,7 +4990,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>87</v>
@@ -4974,17 +5005,17 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5009,13 +5040,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5033,10 +5064,10 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>87</v>
@@ -5062,10 +5093,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5088,17 +5119,17 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5147,7 +5178,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5176,10 +5207,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5202,17 +5233,17 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5261,7 +5292,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5290,10 +5321,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5316,17 +5347,17 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5375,7 +5406,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5404,10 +5435,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5430,17 +5461,17 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5489,7 +5520,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5518,10 +5549,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5544,17 +5575,17 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5603,7 +5634,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5632,10 +5663,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5661,14 +5692,14 @@
         <v>210</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5717,7 +5748,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5746,10 +5777,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5760,7 +5791,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -5772,17 +5803,17 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5831,13 +5862,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -5855,6 +5886,120 @@
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-VisionPrescription.xlsx
+++ b/StructureDefinition-profile-VisionPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.944225-06:00</t>
+    <t>2026-02-20T11:59:20.9827128-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/VisionPrescription|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/VisionPrescription</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -707,7 +707,7 @@
     <t>lensSpecification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VisionPrescription.lensSpecification|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VisionPrescription.lensSpecification}
 </t>
   </si>
   <si>
@@ -1286,7 +1286,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.60546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-VisionPrescription.xlsx
+++ b/StructureDefinition-profile-VisionPrescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="295">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9827128-06:00</t>
+    <t>2026-02-21T13:36:54.390051-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/VisionPrescription</t>
+    <t>http://hl7.org/fhir/StructureDefinition/VisionPrescription|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -685,40 +685,10 @@
     <t>VisionPrescription.lensSpecification.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>VisionPrescription.lensSpecification.extension:lensSpecification</t>
-  </si>
-  <si>
-    <t>lensSpecification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-VisionPrescription.lensSpecification}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for VisionPrescription.lensSpecification from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `VisionPrescription.lensSpecification` has is mapped to FHIR R4 element `VisionPrescription.lensSpecification`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>VisionPrescription.lensSpecification.modifierExtension</t>
@@ -848,9 +818,6 @@
   </si>
   <si>
     <t>VisionPrescription.lensSpecification.prism.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>VisionPrescription.lensSpecification.prism.modifierExtension</t>
@@ -1267,7 +1234,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN41"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1276,9 +1243,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.76953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.59375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.59375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.41015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1286,7 +1253,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="43.47265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3498,11 +3465,11 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -3520,12 +3487,14 @@
         <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3562,17 +3531,19 @@
         <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3590,7 +3561,7 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3601,20 +3572,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -3623,24 +3592,26 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3688,7 +3659,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3697,7 +3668,7 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>138</v>
@@ -3706,7 +3677,7 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3717,45 +3688,43 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3780,13 +3749,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3804,39 +3773,39 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3859,7 +3828,7 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>234</v>
@@ -3867,9 +3836,11 @@
       <c r="M23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3894,7 +3865,7 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="Y23" t="s" s="2">
         <v>238</v>
@@ -3918,7 +3889,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
@@ -3936,21 +3907,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3958,7 +3929,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>87</v>
@@ -3970,22 +3941,22 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4010,13 +3981,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4034,10 +4005,10 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>87</v>
@@ -4063,10 +4034,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4089,19 +4060,17 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4150,7 +4119,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4179,10 +4148,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4208,14 +4177,16 @@
         <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4264,7 +4235,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4293,10 +4264,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4307,7 +4278,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4319,19 +4290,17 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4380,13 +4349,13 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
@@ -4398,7 +4367,7 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4409,10 +4378,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4423,7 +4392,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4435,18 +4404,16 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4494,25 +4461,25 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4523,21 +4490,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4549,15 +4516,17 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4606,19 +4575,19 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -4635,14 +4604,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4655,24 +4624,26 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4720,7 +4691,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4738,7 +4709,7 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4749,45 +4720,43 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4836,25 +4805,25 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4865,10 +4834,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4891,17 +4860,17 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4926,13 +4895,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4950,7 +4919,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
@@ -4979,10 +4948,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4990,7 +4959,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>87</v>
@@ -5005,17 +4974,17 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5040,13 +5009,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5064,10 +5033,10 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>87</v>
@@ -5093,10 +5062,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5119,17 +5088,17 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5178,7 +5147,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5207,10 +5176,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5233,17 +5202,17 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5292,7 +5261,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5321,10 +5290,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5347,17 +5316,17 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5406,7 +5375,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5435,10 +5404,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5461,17 +5430,17 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5520,7 +5489,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5549,10 +5518,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5575,17 +5544,17 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5634,7 +5603,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5663,10 +5632,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5692,14 +5661,14 @@
         <v>210</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5748,7 +5717,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5777,10 +5746,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5791,7 +5760,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -5803,17 +5772,17 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5862,13 +5831,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -5886,120 +5855,6 @@
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN41" t="s" s="2">
         <v>77</v>
       </c>
     </row>
